--- a/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -716,30 +716,57 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
       <c r="B9" s="8" t="n">
-        <v>44964.41236299752</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>44964.41236299768</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>aadharv172</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <v>3.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>44977.42567164859</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>173aadharflow</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>34</v>
+      </c>
+      <c r="E10" t="n">
+        <v>34</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -743,30 +743,246 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>44977.42567164859</v>
-      </c>
-      <c r="C10" t="inlineStr">
+        <v>44977.42567164352</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>173aadharflow</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>44994.56723940972</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>aadhar174fstcycle</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>44998.44610030093</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>174aadharflow</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>45015.69776930555</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>175scnadhar</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>45016.50551984954</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>175fnlaad</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>45022.65158956018</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>176newaadha</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>45023.67214146991</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>176fstadh</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>45023.67613211805</v>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>176fstadh</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>45023.68523743405</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>176fstadh</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>33</v>
+      </c>
+      <c r="E18" t="n">
+        <v>24</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -1207,6 +1423,114 @@
       </c>
       <c r="G7" s="3" t="n">
         <v>1.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>44998.56252199074</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>174betaaadh</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>44998.85407626157</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>173liveaadd</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>45016.56328677083</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>175btaadh</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>45016.8308946875</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>175aaddev</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -959,30 +959,57 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
       <c r="B18" s="8" t="n">
-        <v>45023.68523743405</v>
-      </c>
-      <c r="C18" t="inlineStr">
+        <v>45023.68523743055</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>176fstadh</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>33</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="3" t="n">
         <v>1.05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>45034.51305593146</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>176aadhtrail</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>33</v>
+      </c>
+      <c r="E19" t="n">
+        <v>33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -986,30 +986,57 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B19" s="8" t="n">
-        <v>45034.51305593146</v>
-      </c>
-      <c r="C19" t="inlineStr">
+        <v>45034.51305592593</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>176aadhtrail</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>33</v>
-      </c>
-      <c r="E19" t="n">
-        <v>33</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="D19" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>45036.39693762732</v>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>176fnlaadhar</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -1558,6 +1585,60 @@
       </c>
       <c r="G11" s="3" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>45036.50164357639</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>176betaadh</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>45044.69686144939</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>176fstaadhar</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -1037,6 +1037,222 @@
       </c>
       <c r="G20" s="3" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>45062.80528804398</v>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>177fstadhar</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>45063.67814357639</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>177scnaadhar</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>45064.35921447917</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>177fnlaadhar</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>45069.64400247685</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>177hftxaadhar</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>45071.50077109953</v>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>178day1aadha</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>45072.51574429398</v>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>178daytwoaad</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>45075.44715724537</v>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>178daythreeaad</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>45089.61116718937</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>178aadhdy</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>33</v>
+      </c>
+      <c r="E28" t="n">
+        <v>33</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -1615,30 +1831,111 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
       <c r="B13" s="8" t="n">
-        <v>45044.69686144939</v>
-      </c>
-      <c r="C13" t="inlineStr">
+        <v>45044.69686144676</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>176fstaadhar</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>33</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="3" t="n">
         <v>1.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>45064.46560987268</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>177betaadhar</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>45064.52802021991</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>177betaaadha</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>45065.57626478009</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>177liveaadhar</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -1229,30 +1229,57 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B28" s="8" t="n">
-        <v>45089.61116718937</v>
-      </c>
-      <c r="C28" t="inlineStr">
+        <v>45089.6111671875</v>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>178aadhdy</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>33</v>
-      </c>
-      <c r="E28" t="n">
-        <v>33</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="D28" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="n">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n">
+        <v>45138.43014296296</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>180aadhar</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -1936,6 +1963,60 @@
       </c>
       <c r="G16" s="3" t="n">
         <v>0.97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>45139.53672981481</v>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>180adhara</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>45139.8615866535</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>180liveaadhar</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>33</v>
+      </c>
+      <c r="E18" t="n">
+        <v>33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -1280,6 +1280,465 @@
       </c>
       <c r="G29" s="3" t="n">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>45196.70990913195</v>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>183adhartest</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>45202.49233401621</v>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>183scndaadh</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>45203.46945216435</v>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>183fnlaadha</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="n">
+        <v>45229.42153403935</v>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>184aadharfnl</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="n">
+        <v>45258.41024398148</v>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>aadh185fst</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="n">
+        <v>45259.36318260417</v>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>185adhafnl</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>45275.72651422454</v>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>186aadhar</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>45278.42209126157</v>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>186aadharfnl</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v>45299.69730552084</v>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>187fstadha</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="n">
+        <v>45301.37486506945</v>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>187llstaadh</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="n">
+        <v>45323.6472050463</v>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>188adharfstcyc</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="n">
+        <v>45324.83046677084</v>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>188scndcycadha</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="n">
+        <v>45327.38762851852</v>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>188lstaddha</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="n">
+        <v>45341.44715535879</v>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>188adharrhtfx</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="n">
+        <v>45357.64742094908</v>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>189fstaadhar</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v>45358.54203550926</v>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>189scndaasd</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="n">
+        <v>45359.33546944444</v>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>189fnladhar</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -1993,30 +2452,489 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B18" s="8" t="n">
-        <v>45139.8615866535</v>
-      </c>
-      <c r="C18" t="inlineStr">
+        <v>45139.86158665509</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>180liveaadhar</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>33</v>
-      </c>
-      <c r="E18" t="n">
-        <v>33</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="D18" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>45203.50355793982</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>183betaadhar</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>45203.92205459491</v>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>138liveaad</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>45229.63318618055</v>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>184adharbeta</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>45229.80700987268</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>184adhalive</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>45259.58068775463</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>185betaadhar</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>45259.89348274306</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>185adharlive</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>45278.55916340278</v>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>186betadha</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>45278.81928231481</v>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>186liveaadhar</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>45279.48705965278</v>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>186aadharli</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>45301.54956385417</v>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>187aaharbeta</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n">
+        <v>45301.86894307871</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>187liveaadhar</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>45327.57587032407</v>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>188betaadha</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>45327.86773418981</v>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>188liveaadhar</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>45338.54780210648</v>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>188htfxx</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="n">
+        <v>45344.76387697917</v>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>188dubhtfx</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="n">
+        <v>45359.43299625</v>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>189betaadhar</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="n">
+        <v>45359.72330496551</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>189liveaadhar</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -1739,6 +1739,114 @@
       </c>
       <c r="G46" s="3" t="n">
         <v>1.77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="n">
+        <v>45379.52320372685</v>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>190fstadhar</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="n">
+        <v>45383.37001543982</v>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>190fnladhar</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="n">
+        <v>45414.46614236111</v>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>191fstaadhar</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="n">
+        <v>45415.33940550926</v>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>191lstaadha</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +2082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -2911,30 +3019,111 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B35" s="8" t="n">
-        <v>45359.72330496551</v>
-      </c>
-      <c r="C35" t="inlineStr">
+        <v>45359.72330496528</v>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>189liveaadhar</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>33</v>
-      </c>
-      <c r="E35" t="n">
-        <v>33</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="D35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>45383.52259857639</v>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>190betaaadhar</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>45383.8447242824</v>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>190liveadhar</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v>45415.58708008753</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>191betaadhar</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>33</v>
+      </c>
+      <c r="E38" t="n">
+        <v>33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
@@ -2082,7 +2082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -3100,29 +3100,56 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B38" s="8" t="n">
-        <v>45415.58708008753</v>
-      </c>
-      <c r="C38" t="inlineStr">
+        <v>45415.58708009259</v>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>191betaadhar</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>33</v>
-      </c>
-      <c r="E38" t="n">
-        <v>33</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="D38" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="n">
+        <v>45418.55395351665</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>191liveadha</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>33</v>
+      </c>
+      <c r="E39" t="n">
+        <v>33</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>1.6</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_Aadhar_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -1849,6 +1849,87 @@
         <v>1.04</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="n">
+        <v>45489.62540519676</v>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>193fstadhar</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="n">
+        <v>45490.7437129051</v>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>194scndaadhar</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B53" s="8" t="n">
+        <v>45491.35770583333</v>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>194fnladhar</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1862,7 +1943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G7"/>
@@ -2067,6 +2148,60 @@
       </c>
       <c r="G7" s="3" t="n">
         <v>1.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>45491.62753424769</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>194betaadha</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>45491.6928815854</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>194bettaa</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -3127,29 +3262,29 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B39" s="8" t="n">
-        <v>45418.55395351665</v>
-      </c>
-      <c r="C39" t="inlineStr">
+        <v>45418.55395351852</v>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>191liveadha</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>33</v>
-      </c>
-      <c r="E39" t="n">
-        <v>33</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="D39" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="n">
         <v>1.6</v>
       </c>
     </row>
